--- a/TestData/ProductData.xlsx
+++ b/TestData/ProductData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anand\Desktop\FlipkartProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1998845B-40E8-4F01-9977-2654A2B7DEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446E1945-7667-44B7-AFFD-C6E5C8438E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductDetails" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ProductName</t>
   </si>
   <si>
     <t>laptop</t>
-  </si>
-  <si>
-    <t>mobile</t>
   </si>
 </sst>
 </file>
@@ -351,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -372,11 +369,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
